--- a/concept_metric.xlsx
+++ b/concept_metric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alptu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozars\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82AC7DE-F53C-46B3-B02A-06EE12454D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6DAD7-518A-4482-ABB6-8D09E623936A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{B07782FA-A61B-4DC8-B951-A20BAB2EBF85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B07782FA-A61B-4DC8-B951-A20BAB2EBF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Systems</t>
   </si>
@@ -54,10 +52,6 @@
   </si>
   <si>
     <t>A drone is used as body.</t>
-  </si>
-  <si>
-    <t>Vertical linear motion is translated with pralaellograms to the body
- for motion in a predefined volume.</t>
   </si>
   <si>
     <t>The body moves on 
@@ -68,18 +62,9 @@
     <t>Multiple cables hold the body and the position is controled by the length of cable.</t>
   </si>
   <si>
-    <t>Explanations</t>
-  </si>
-  <si>
-    <t>Multiple big magnets are placed on 2 of room walls as well as ceiling, by activating them by order, motion is performed wo contact with the body:)</t>
-  </si>
-  <si>
     <t>AcroCam</t>
   </si>
   <si>
-    <t>Top plane is covered with slalom patterned cable(s), body moves on this road and hangs its gripper to the lower volume.</t>
-  </si>
-  <si>
     <t>Project Cost</t>
   </si>
   <si>
@@ -101,20 +86,41 @@
     <t>GorillaCam</t>
   </si>
   <si>
-    <t>A planar mesh of cables is placed on top plane, body holds to the mesh with "arms" and moves itself, hanging gripepr</t>
-  </si>
-  <si>
     <t>Ease of maintenance</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>A planar mesh of cables is placed on top plane, body holds to the mesh with "arms" and moves itself, hanging gripper</t>
+  </si>
+  <si>
+    <t>Design complexity</t>
+  </si>
+  <si>
+    <t>Reach volume (with obstacles)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            
+                                       Explanations
+        Criteria</t>
+  </si>
+  <si>
+    <t>Vertical linear motion is translated with paralellograms to the body
+ for motion in a predefined volume.</t>
+  </si>
+  <si>
+    <t>Multiple big magnets are placed on room walls as well as ceiling, by activating them in order, motion is performed w/o contact with the body :)</t>
+  </si>
+  <si>
+    <t>Top plane is covered with slalom patterned cable(s), body moves on this cable and hangs its gripper to the lower volume.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +129,57 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,26 +187,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
+    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,115 +533,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DF897E-05D0-406F-8CC3-5C070AB58FB9}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="32.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>22</v>
+      <c r="B12" s="3">
+        <f>SUM(B3:B11)</f>
+        <v>66</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:H12" si="0">SUM(C3:C11)</f>
+        <v>58</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/concept_metric.xlsx
+++ b/concept_metric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozars\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6DAD7-518A-4482-ABB6-8D09E623936A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E157C32C-6078-45FD-AC70-280F8A9AF144}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B07782FA-A61B-4DC8-B951-A20BAB2EBF85}"/>
   </bookViews>
@@ -202,20 +202,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -536,7 +547,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,28 +589,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -630,28 +641,28 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>9</v>
       </c>
     </row>
@@ -682,28 +693,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
         <v>7</v>
       </c>
     </row>
@@ -734,28 +745,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="6">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6">
         <v>6</v>
       </c>
     </row>
@@ -786,28 +797,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>6</v>
       </c>
     </row>
@@ -841,31 +852,31 @@
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <f>SUM(B3:B11)</f>
         <v>66</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="8">
         <f t="shared" ref="C12:H12" si="0">SUM(C3:C11)</f>
         <v>58</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
